--- a/Policy-Templates/Official/OpenChain-1.2-Pre-ISO/en/Open-Source-Policy-Template-1.2-en.xlsx
+++ b/Policy-Templates/Official/OpenChain-1.2-Pre-ISO/en/Open-Source-Policy-Template-1.2-en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shane/Documents/OpenChain GitHub/Reference-Material/Policy-Templates/Official/OpenChain-1.2-Pre-ISO/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F653893-F8D6-0147-B2E8-3F92E1868337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F00127-359C-3848-8C56-EFA590CFB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="22160" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="22160" windowHeight="18180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Here" sheetId="1" r:id="rId1"/>
@@ -946,9 +946,6 @@
     <t>A process exists for creating the set of Compliance Artifacts for each Supplied Software release.</t>
   </si>
   <si>
-    <t>Open source licenses attach a variety of requirements to the distribution of source and/or binaries. Some require notices to be displayed by or with the running code, while others have requirements relating to the content and location of attribution, copyright statements, disclaimers and similar. Copyleft licenses also require copies of corresponding source to be made available to the recipient or to the general public. A failure to comply with any of these requirements would breach the license and is con-compliance with this policy with potentially serious consequences. For convenience, all these various materials are called "Compliance Artefacts"</t>
-  </si>
-  <si>
     <t>EUPL-1.1</t>
   </si>
   <si>
@@ -1604,6 +1601,9 @@
 VA = verification artifact
 TX= supporting policy text
 Column D of the OpenChain Open Source Policy Template is sample policy text which addresses the specific OpenChain Specification requirement.</t>
+  </si>
+  <si>
+    <t>Open source licenses attach a variety of requirements to the distribution of source and/or binaries. Some require notices to be displayed by or with the running code, while others have requirements relating to the content and location of attribution, copyright statements, disclaimers and similar. Copyleft licenses also require copies of corresponding source to be made available to the recipient or to the general public. A failure to comply with any of these requirements would breach the license and is con-compliance with this policy with potentially serious consequences. For convenience, all these various materials are called "Compliance artifacts"</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2479,7 @@
   </sheetPr>
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
@@ -5601,9 +5601,9 @@
   </sheetPr>
   <dimension ref="A1:E1026"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -6222,43 +6222,43 @@
         <v>82</v>
       </c>
       <c r="D50" s="53" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="70">
       <c r="A51" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="43" t="s">
         <v>188</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>189</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="56">
       <c r="A52" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="43" t="s">
         <v>191</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>192</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="42">
       <c r="A53" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="47" t="s">
         <v>194</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>195</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>93</v>
@@ -6270,13 +6270,13 @@
         <v>5</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="319">
@@ -6284,49 +6284,49 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="266">
       <c r="A56" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" s="43" t="s">
         <v>201</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>202</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="42">
       <c r="A57" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="43" t="s">
         <v>204</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>205</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="84">
       <c r="A58" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="47" t="s">
         <v>207</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>208</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>93</v>
@@ -6338,7 +6338,7 @@
         <v>5.2</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>82</v>
@@ -6347,24 +6347,24 @@
     </row>
     <row r="60" spans="1:4" ht="126">
       <c r="A60" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>211</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>212</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="70">
       <c r="A61" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B61" s="47" t="s">
         <v>214</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>215</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>93</v>
@@ -6376,13 +6376,13 @@
         <v>6</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="154">
@@ -6390,35 +6390,35 @@
         <v>6.1</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="56">
       <c r="A64" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="47" t="s">
         <v>221</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>222</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="56">
       <c r="A65" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" s="43" t="s">
         <v>224</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>225</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>93</v>
@@ -6430,7 +6430,7 @@
         <v>6.2</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>82</v>
@@ -6439,24 +6439,24 @@
     </row>
     <row r="67" spans="1:4" ht="84">
       <c r="A67" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>86</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="70">
       <c r="A68" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="47" t="s">
         <v>231</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>232</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>93</v>
@@ -12272,7 +12272,7 @@
         <v>13</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
@@ -13286,7 +13286,7 @@
         <v>European Union Public License, Version 1.1</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>42</v>
@@ -13315,10 +13315,10 @@
     </row>
     <row r="33" spans="2:15" ht="14">
       <c r="B33" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>42</v>
@@ -13351,7 +13351,7 @@
         <v xml:space="preserve">Fair License </v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="11" t="str">
         <f>IF(F34="yes","SaaS",IF(E34="no","permissive",IF(E34="yes","copyleft",E34)))</f>
@@ -13385,7 +13385,7 @@
         <v>Frameworx License</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>42</v>
@@ -13418,7 +13418,7 @@
         <v>Free Public License 1.0.0</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="11" t="str">
         <f t="shared" ref="D36:D37" si="4">IF(F36="yes","SaaS",IF(E36="no","permissive",IF(E36="yes","copyleft",E36)))</f>
@@ -13452,7 +13452,7 @@
         <v>GNU Affero General Public License version 3</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D37" s="11" t="str">
         <f t="shared" si="4"/>
@@ -13486,7 +13486,7 @@
         <v>GNU General Public License version 2</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>42</v>
@@ -13519,7 +13519,7 @@
         <v>GNU General Public License version 3</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>42</v>
@@ -13552,7 +13552,7 @@
         <v>GNU Lesser General Public License version 2.1</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>42</v>
@@ -13585,7 +13585,7 @@
         <v>GNU Lesser General Public License version 3</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>42</v>
@@ -13618,7 +13618,7 @@
         <v>Historical Permission Notice and Disclaimer</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42" s="11" t="str">
         <f>IF(F42="yes","SaaS",IF(E42="no","permissive",IF(E42="yes","copyleft",E42)))</f>
@@ -13652,7 +13652,7 @@
         <v xml:space="preserve">IBM Public License 1.0 </v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>42</v>
@@ -13685,7 +13685,7 @@
         <v xml:space="preserve">IPA Font License </v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="11" t="str">
         <f t="shared" ref="D44:D46" si="5">IF(F44="yes","SaaS",IF(E44="no","permissive",IF(E44="yes","copyleft",E44)))</f>
@@ -13719,7 +13719,7 @@
         <v>ISC License</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" s="11" t="str">
         <f t="shared" si="5"/>
@@ -13753,7 +13753,7 @@
         <v>LaTeX Project Public License 1.3c</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" s="11" t="str">
         <f t="shared" si="5"/>
@@ -13787,7 +13787,7 @@
         <v>Licence Libre du Québec – Permissive</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>42</v>
@@ -13820,7 +13820,7 @@
         <v xml:space="preserve">Licence Libre du Québec – Réciprocité </v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>42</v>
@@ -13853,7 +13853,7 @@
         <v>Licence Libre du Québec – Réciprocité forte</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>42</v>
@@ -13886,7 +13886,7 @@
         <v>Lucent Public License Version 1.02</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>42</v>
@@ -13919,7 +13919,7 @@
         <v>MirOS Licence</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D51" s="11" t="str">
         <f>IF(F51="yes","SaaS",IF(E51="no","permissive",IF(E51="yes","copyleft",E51)))</f>
@@ -13953,7 +13953,7 @@
         <v>Microsoft Public License</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>42</v>
@@ -13986,7 +13986,7 @@
         <v xml:space="preserve">Microsoft Reciprocal License </v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>42</v>
@@ -14019,7 +14019,7 @@
         <v xml:space="preserve">MIT License </v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D54" s="11" t="str">
         <f t="shared" ref="D54:D55" si="6">IF(F54="yes","SaaS",IF(E54="no","permissive",IF(E54="yes","copyleft",E54)))</f>
@@ -14053,7 +14053,7 @@
         <v>Motosoto License</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" s="11" t="str">
         <f t="shared" si="6"/>
@@ -14087,7 +14087,7 @@
         <v xml:space="preserve">Mozilla Public License 1.0 </v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>42</v>
@@ -14120,7 +14120,7 @@
         <v>Mozilla Public License 1.1</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>42</v>
@@ -14153,7 +14153,7 @@
         <v xml:space="preserve">Mozilla Public License 2.0 </v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>42</v>
@@ -14186,7 +14186,7 @@
         <v>Multics License (Multics)</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D59" s="11" t="str">
         <f>IF(F59="yes","SaaS",IF(E59="no","permissive",IF(E59="yes","copyleft",E59)))</f>
@@ -14220,7 +14220,7 @@
         <v>NASA Open Source Agreement 1.3</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>42</v>
@@ -14253,7 +14253,7 @@
         <v>NTP License</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D61" s="11" t="str">
         <f t="shared" ref="D61:D62" si="7">IF(F61="yes","SaaS",IF(E61="no","permissive",IF(E61="yes","copyleft",E61)))</f>
@@ -14287,7 +14287,7 @@
         <v>Naumen Public License</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="11" t="str">
         <f t="shared" si="7"/>
@@ -14321,7 +14321,7 @@
         <v xml:space="preserve">Nethack General Public License </v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>42</v>
@@ -14354,7 +14354,7 @@
         <v xml:space="preserve">Nokia Open Source License </v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>42</v>
@@ -14387,7 +14387,7 @@
         <v>Non-Profit Open Software License 3.0</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>42</v>
@@ -14420,7 +14420,7 @@
         <v xml:space="preserve">OCLC Research Public License 2.0 </v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>42</v>
@@ -14453,7 +14453,7 @@
         <v>Open Government Licence 3.0</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>61</v>
@@ -14486,7 +14486,7 @@
         <v>Open Group Test Suite License</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>42</v>
@@ -14519,7 +14519,7 @@
         <v>Open Software License 3.0</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" s="11" t="str">
         <f>IF(F69="yes","SaaS",IF(E69="no","permissive",IF(E69="yes","copyleft",E69)))</f>
@@ -14549,10 +14549,10 @@
     </row>
     <row r="70" spans="2:15" ht="14">
       <c r="B70" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" s="51" t="s">
         <v>265</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>266</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>42</v>
@@ -14585,7 +14585,7 @@
         <v>PHP License 3.0</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D71" s="11" t="str">
         <f t="shared" ref="D71:D74" si="8">IF(F71="yes","SaaS",IF(E71="no","permissive",IF(E71="yes","copyleft",E71)))</f>
@@ -14619,7 +14619,7 @@
         <v xml:space="preserve">The PostgreSQL License </v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" s="11" t="str">
         <f t="shared" si="8"/>
@@ -14653,7 +14653,7 @@
         <v>Python License (overall Python license)</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D73" s="11" t="str">
         <f t="shared" si="8"/>
@@ -14687,7 +14687,7 @@
         <v>CNRI Python license (CNRI portion of Python License)</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D74" s="11" t="str">
         <f t="shared" si="8"/>
@@ -14721,7 +14721,7 @@
         <v xml:space="preserve">Q Public License </v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>42</v>
@@ -14754,7 +14754,7 @@
         <v>RealNetworks Public Source License V1.0</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>42</v>
@@ -14787,7 +14787,7 @@
         <v xml:space="preserve">Reciprocal Public License 1.5 </v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>42</v>
@@ -14820,7 +14820,7 @@
         <v xml:space="preserve">Ricoh Source Code Public License </v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>42</v>
@@ -14853,7 +14853,7 @@
         <v>SIL Open Font License 1.1</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D79" s="11" t="str">
         <f t="shared" ref="D79:D81" si="9">IF(F79="yes","SaaS",IF(E79="no","permissive",IF(E79="yes","copyleft",E79)))</f>
@@ -14887,7 +14887,7 @@
         <v xml:space="preserve">Simple Public License 2.0 </v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D80" s="11" t="str">
         <f t="shared" si="9"/>
@@ -14921,7 +14921,7 @@
         <v xml:space="preserve">Sleepycat License </v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D81" s="11" t="str">
         <f t="shared" si="9"/>
@@ -14955,7 +14955,7 @@
         <v xml:space="preserve">Sun Public License 1.0 </v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>42</v>
@@ -14988,7 +14988,7 @@
         <v>Sybase Open Watcom Public License 1.0 (Watcom-1.0)</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D83" s="11" t="str">
         <f t="shared" ref="D83:D89" si="10">IF(F83="yes","SaaS",IF(E83="no","permissive",IF(E83="yes","copyleft",E83)))</f>
@@ -15018,10 +15018,10 @@
     </row>
     <row r="84" spans="2:15" ht="14">
       <c r="B84" s="63" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>300</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>301</v>
       </c>
       <c r="D84" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15055,7 +15055,7 @@
         <v xml:space="preserve">University of Illinois/NCSA Open Source License </v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D85" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15089,7 +15089,7 @@
         <v xml:space="preserve">Universal Permissive License </v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D86" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15119,10 +15119,10 @@
     </row>
     <row r="87" spans="2:15" ht="14">
       <c r="B87" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D87" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15156,7 +15156,7 @@
         <v>Vovida Software License v. 1.0</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D88" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15190,7 +15190,7 @@
         <v>W3C License</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D89" s="11" t="str">
         <f t="shared" si="10"/>
@@ -15224,7 +15224,7 @@
         <v xml:space="preserve">wxWindows Library License </v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>42</v>
@@ -15257,7 +15257,7 @@
         <v xml:space="preserve">X.Net License </v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>61</v>
@@ -15290,7 +15290,7 @@
         <v>Zero Clause BSD License: see Free Public License 1.0.0</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D92" s="11" t="str">
         <f t="shared" ref="D92:D94" si="11">IF(F92="yes","SaaS",IF(E92="no","permissive",IF(E92="yes","copyleft",E92)))</f>
@@ -15324,7 +15324,7 @@
         <v xml:space="preserve">Zope Public License 2.0 </v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D93" s="11" t="str">
         <f t="shared" si="11"/>
@@ -15358,7 +15358,7 @@
         <v xml:space="preserve">zlib/libpng license </v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D94" s="35" t="str">
         <f t="shared" si="11"/>
@@ -15386,7 +15386,7 @@
       <c r="N94" s="35"/>
       <c r="O94" s="35"/>
     </row>
-    <row r="95" spans="2:15" ht="14">
+    <row r="95" spans="2:15" ht="13">
       <c r="C95" s="65"/>
       <c r="D95" s="66"/>
       <c r="E95" s="65"/>
@@ -15394,7 +15394,7 @@
       <c r="G95" s="65"/>
       <c r="H95" s="65"/>
     </row>
-    <row r="101" spans="2:2" ht="14">
+    <row r="101" spans="2:2" ht="13">
       <c r="B101" s="66"/>
     </row>
   </sheetData>
@@ -15455,7 +15455,7 @@
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="34"/>
       <c r="B1" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1" s="34"/>
       <c r="D1" s="58"/>
@@ -15515,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -15548,7 +15548,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -15581,7 +15581,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
@@ -15614,7 +15614,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -15647,7 +15647,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -15680,7 +15680,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -15713,7 +15713,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -15746,7 +15746,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
@@ -15804,7 +15804,7 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="60"/>
@@ -15836,7 +15836,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
@@ -15868,7 +15868,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
@@ -15900,7 +15900,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" s="60"/>
       <c r="D15" s="60"/>
@@ -15932,7 +15932,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="60"/>
@@ -15964,7 +15964,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -15996,7 +15996,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -16082,13 +16082,13 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="34"/>
       <c r="B21" s="58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="D21" s="60" t="s">
         <v>297</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>298</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -16116,7 +16116,7 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="34"/>
       <c r="B22" s="62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C22" s="64">
         <v>0</v>
@@ -16152,13 +16152,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="D23" s="34" t="s">
         <v>303</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>304</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
@@ -16189,13 +16189,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="D24" s="34" t="s">
         <v>307</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>308</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -16226,13 +16226,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C25" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>311</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>312</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -16263,13 +16263,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="D26" s="34" t="s">
         <v>315</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>316</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -16300,13 +16300,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="D27" s="34" t="s">
         <v>318</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>319</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
@@ -16337,13 +16337,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="D28" s="34" t="s">
         <v>321</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>322</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
@@ -16374,13 +16374,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="D29" s="34" t="s">
         <v>325</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>326</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -16411,13 +16411,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>329</v>
-      </c>
       <c r="D30" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
@@ -16448,13 +16448,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="D31" s="34" t="s">
         <v>333</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>334</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -16538,10 +16538,10 @@
     <row r="34" spans="1:26" ht="28">
       <c r="A34" s="34"/>
       <c r="B34" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="34" t="s">
         <v>336</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>337</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -16570,22 +16570,22 @@
     <row r="35" spans="1:26" ht="14">
       <c r="A35" s="34"/>
       <c r="B35" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="C35" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="D35" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="E35" s="58" t="s">
         <v>341</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="F35" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="F35" s="58" t="s">
+      <c r="G35" s="58" t="s">
         <v>343</v>
-      </c>
-      <c r="G35" s="58" t="s">
-        <v>344</v>
       </c>
       <c r="H35" s="34"/>
       <c r="I35" s="34"/>
@@ -16610,19 +16610,19 @@
     <row r="36" spans="1:26" ht="14">
       <c r="A36" s="34"/>
       <c r="B36" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C36" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D36" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="E36" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
@@ -16648,19 +16648,19 @@
     <row r="37" spans="1:26" ht="14">
       <c r="A37" s="34"/>
       <c r="B37" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>348</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>349</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G37" s="34"/>
       <c r="H37" s="34"/>
@@ -16686,22 +16686,22 @@
     <row r="38" spans="1:26" ht="28">
       <c r="A38" s="34"/>
       <c r="B38" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C38" s="34" t="s">
         <v>348</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>349</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" s="34" t="s">
         <v>351</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G38" s="34" t="s">
-        <v>352</v>
       </c>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
@@ -16726,22 +16726,22 @@
     <row r="39" spans="1:26" ht="28">
       <c r="A39" s="34"/>
       <c r="B39" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>349</v>
-      </c>
       <c r="D39" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" s="34" t="s">
         <v>353</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>354</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
@@ -16766,22 +16766,22 @@
     <row r="40" spans="1:26" ht="28">
       <c r="A40" s="34"/>
       <c r="B40" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C40" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>356</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>347</v>
-      </c>
       <c r="G40" s="34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
@@ -16806,19 +16806,19 @@
     <row r="41" spans="1:26" ht="14">
       <c r="A41" s="34"/>
       <c r="B41" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>356</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="34"/>
@@ -16844,19 +16844,19 @@
     <row r="42" spans="1:26" ht="14">
       <c r="A42" s="34"/>
       <c r="B42" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>355</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>356</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
@@ -16882,19 +16882,19 @@
     <row r="43" spans="1:26" ht="14">
       <c r="A43" s="34"/>
       <c r="B43" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>360</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>361</v>
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
@@ -16920,19 +16920,19 @@
     <row r="44" spans="1:26" ht="14">
       <c r="A44" s="34"/>
       <c r="B44" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
@@ -16958,19 +16958,19 @@
     <row r="45" spans="1:26" ht="14">
       <c r="A45" s="34"/>
       <c r="B45" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="F45" s="34" t="s">
         <v>346</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>347</v>
       </c>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
@@ -16996,19 +16996,19 @@
     <row r="46" spans="1:26" ht="14">
       <c r="A46" s="34"/>
       <c r="B46" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
@@ -17034,19 +17034,19 @@
     <row r="47" spans="1:26" ht="14">
       <c r="A47" s="34"/>
       <c r="B47" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="D47" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="D47" s="34" t="s">
-        <v>364</v>
-      </c>
       <c r="E47" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F47" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="34"/>
@@ -17072,22 +17072,22 @@
     <row r="48" spans="1:26" ht="42">
       <c r="A48" s="34"/>
       <c r="B48" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D48" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="34" t="s">
         <v>365</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>366</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
@@ -17112,22 +17112,22 @@
     <row r="49" spans="1:26" ht="28">
       <c r="A49" s="34"/>
       <c r="B49" s="61" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C49" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D49" s="61" t="s">
         <v>44</v>
       </c>
       <c r="E49" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="F49" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="F49" s="61" t="s">
-        <v>347</v>
-      </c>
       <c r="G49" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="34"/>
@@ -17152,19 +17152,19 @@
     <row r="50" spans="1:26" ht="14">
       <c r="A50" s="34"/>
       <c r="B50" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F50" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="34"/>
@@ -17190,19 +17190,19 @@
     <row r="51" spans="1:26" ht="14">
       <c r="A51" s="34"/>
       <c r="B51" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>48</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="34"/>
@@ -44435,7 +44435,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -44465,7 +44465,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="60" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -44523,7 +44523,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -44553,7 +44553,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="34" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -44583,7 +44583,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -44613,7 +44613,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -44643,7 +44643,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -44673,7 +44673,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -44703,7 +44703,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -44733,7 +44733,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -44763,7 +44763,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -44821,7 +44821,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -44851,7 +44851,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -44881,7 +44881,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -44911,7 +44911,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -44941,7 +44941,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -44971,7 +44971,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
